--- a/Riskassesment.xlsx
+++ b/Riskassesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herbe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3ED5BD9-41DB-4979-907F-1A09C5B0F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53844CF8-70E8-482A-B28E-8E5EB2E6A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A3BBF22-6541-4C26-B8D7-C9435369A6D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>risico analyse</t>
   </si>
@@ -50,33 +50,12 @@
     <t>dreiging</t>
   </si>
   <si>
-    <t>waarschijnlijkheid</t>
-  </si>
-  <si>
-    <t>blootstelling</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
     <t>risico waarde</t>
   </si>
   <si>
     <t>actie</t>
   </si>
   <si>
-    <t>argumentatie</t>
-  </si>
-  <si>
-    <t>aanvaardbare situatie</t>
-  </si>
-  <si>
-    <t>aandacht vereist</t>
-  </si>
-  <si>
-    <t>n.v.t.</t>
-  </si>
-  <si>
     <t>overige gevaren</t>
   </si>
   <si>
@@ -90,13 +69,37 @@
   </si>
   <si>
     <t>ergonomical dangers</t>
+  </si>
+  <si>
+    <t>electrical shok</t>
+  </si>
+  <si>
+    <t>argumentation</t>
+  </si>
+  <si>
+    <t>Low voltage (24-48) and industrial electrical system</t>
+  </si>
+  <si>
+    <t>Probability (1-5)</t>
+  </si>
+  <si>
+    <t>consequences(1-5)</t>
+  </si>
+  <si>
+    <t>Short circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industrial components and fuses </t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +114,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,14 +140,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,11 +254,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,11 +299,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,23 +650,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A67E93-E611-4270-9771-11673C57BC93}">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -649,13 +675,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -663,301 +688,242 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="9">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10">
-        <f>PRODUCT(D5:F5)</f>
-        <v>2.5600000000000005</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" ref="G6:G8" si="0">PRODUCT(D6:F6)</f>
-        <v>3.8249999999999997</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="0"/>
-        <v>5.9500000000000011</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>9</v>
-      </c>
-      <c r="F8" s="23">
-        <v>7</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10">
-        <f>PRODUCT(D10:F10)</f>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
+        <f>E10*D10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>5</v>
+      </c>
+      <c r="F11" s="23">
+        <f>E11*D11</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15">
+        <f>PRODUCT(D15:E15)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15">
-        <f>PRODUCT(D12:F12)</f>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18">
+        <f>PRODUCT(D22:E22)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G14" s="10">
-        <f>PRODUCT(D14:F14)</f>
-        <v>4.25</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>8.5</v>
-      </c>
-      <c r="F15" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" ref="G15:G17" si="1">PRODUCT(D15:F15)</f>
-        <v>4.25</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="F16" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <f>PRODUCT(D19:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
